--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Tgfbr3</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H2">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I2">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J2">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.1602208046484</v>
+        <v>20.26081</v>
       </c>
       <c r="N2">
-        <v>12.1602208046484</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P2">
-        <v>0.1502056919967382</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q2">
-        <v>13.1581252782171</v>
+        <v>24.72559690285667</v>
       </c>
       <c r="R2">
-        <v>13.1581252782171</v>
+        <v>222.53037212571</v>
       </c>
       <c r="S2">
-        <v>0.005745077423708309</v>
+        <v>0.007775074091726554</v>
       </c>
       <c r="T2">
-        <v>0.005745077423708309</v>
+        <v>0.007775074091726555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H3">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I3">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J3">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.8543492422994</v>
+        <v>55.974318</v>
       </c>
       <c r="N3">
-        <v>55.8543492422994</v>
+        <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P3">
-        <v>0.6899250691040103</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q3">
-        <v>60.43792596122317</v>
+        <v>68.30913590228201</v>
       </c>
       <c r="R3">
-        <v>60.43792596122317</v>
+        <v>614.7822231205381</v>
       </c>
       <c r="S3">
-        <v>0.02638830050891759</v>
+        <v>0.02148011208258028</v>
       </c>
       <c r="T3">
-        <v>0.02638830050891759</v>
+        <v>0.02148011208258028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H4">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I4">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J4">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.174273158150951</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N4">
-        <v>0.174273158150951</v>
+        <v>0.215531</v>
       </c>
       <c r="O4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P4">
-        <v>0.002152659950591865</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q4">
-        <v>0.1885745402504685</v>
+        <v>0.08767554416744443</v>
       </c>
       <c r="R4">
-        <v>0.1885745402504685</v>
+        <v>0.7890798975069999</v>
       </c>
       <c r="S4">
-        <v>8.233508276993209E-05</v>
+        <v>2.756996543349641E-05</v>
       </c>
       <c r="T4">
-        <v>8.233508276993209E-05</v>
+        <v>2.756996543349642E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H5">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I5">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J5">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.191198110973819</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N5">
-        <v>0.191198110973819</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P5">
-        <v>0.002361720648716625</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q5">
-        <v>0.206888405857751</v>
+        <v>0.2270962197557778</v>
       </c>
       <c r="R5">
-        <v>0.206888405857751</v>
+        <v>2.043865977802</v>
       </c>
       <c r="S5">
-        <v>9.033125043185627E-05</v>
+        <v>7.14114179523888E-05</v>
       </c>
       <c r="T5">
-        <v>9.033125043185627E-05</v>
+        <v>7.141141795238881E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08206302250591</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H6">
-        <v>1.08206302250591</v>
+        <v>3.661097</v>
       </c>
       <c r="I6">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J6">
-        <v>0.03824806734909265</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.5770824985993</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N6">
-        <v>12.5770824985993</v>
+        <v>0.579881</v>
       </c>
       <c r="O6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P6">
-        <v>0.1553548582999431</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q6">
-        <v>13.60919590274054</v>
+        <v>0.2358889543841111</v>
       </c>
       <c r="R6">
-        <v>13.60919590274054</v>
+        <v>2.123000589457</v>
       </c>
       <c r="S6">
-        <v>0.00594202308326497</v>
+        <v>7.417633252544338E-05</v>
       </c>
       <c r="T6">
-        <v>0.00594202308326497</v>
+        <v>7.417633252544338E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.5454626451614</v>
+        <v>1.220365666666667</v>
       </c>
       <c r="H7">
-        <v>13.5454626451614</v>
+        <v>3.661097</v>
       </c>
       <c r="I7">
-        <v>0.4787962962886685</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="J7">
-        <v>0.4787962962886685</v>
+        <v>0.03617655147864451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.1602208046484</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N7">
-        <v>12.1602208046484</v>
+        <v>52.754797</v>
       </c>
       <c r="O7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P7">
-        <v>0.1502056919967382</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q7">
-        <v>164.7158166662794</v>
+        <v>21.46004767025655</v>
       </c>
       <c r="R7">
-        <v>164.7158166662794</v>
+        <v>193.140429032309</v>
       </c>
       <c r="S7">
-        <v>0.07191792900951474</v>
+        <v>0.006748207588426354</v>
       </c>
       <c r="T7">
-        <v>0.07191792900951474</v>
+        <v>0.006748207588426355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H8">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I8">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J8">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.8543492422994</v>
+        <v>20.26081</v>
       </c>
       <c r="N8">
-        <v>55.8543492422994</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P8">
-        <v>0.6899250691040103</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q8">
-        <v>756.5730012313655</v>
+        <v>275.13472877731</v>
       </c>
       <c r="R8">
-        <v>756.5730012313655</v>
+        <v>2476.21255899579</v>
       </c>
       <c r="S8">
-        <v>0.3303335678037038</v>
+        <v>0.0865173411123403</v>
       </c>
       <c r="T8">
-        <v>0.3303335678037038</v>
+        <v>0.0865173411123403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H9">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I9">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J9">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.174273158150951</v>
+        <v>55.974318</v>
       </c>
       <c r="N9">
-        <v>0.174273158150951</v>
+        <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P9">
-        <v>0.002152659950591865</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q9">
-        <v>2.360610553788012</v>
+        <v>760.1117034030179</v>
       </c>
       <c r="R9">
-        <v>2.360610553788012</v>
+        <v>6841.005330627161</v>
       </c>
       <c r="S9">
-        <v>0.001030685611512333</v>
+        <v>0.2390205112202627</v>
       </c>
       <c r="T9">
-        <v>0.001030685611512333</v>
+        <v>0.2390205112202626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H10">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I10">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J10">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.191198110973819</v>
+        <v>0.07184366666666665</v>
       </c>
       <c r="N10">
-        <v>0.191198110973819</v>
+        <v>0.215531</v>
       </c>
       <c r="O10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383343</v>
       </c>
       <c r="P10">
-        <v>0.002361720648716625</v>
+        <v>0.0007620949014383344</v>
       </c>
       <c r="Q10">
-        <v>2.589866870021289</v>
+        <v>0.9756119198936664</v>
       </c>
       <c r="R10">
-        <v>2.589866870021289</v>
+        <v>8.780507279042999</v>
       </c>
       <c r="S10">
-        <v>0.001130783099473992</v>
+        <v>0.0003067855142889781</v>
       </c>
       <c r="T10">
-        <v>0.001130783099473992</v>
+        <v>0.0003067855142889782</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.5454626451614</v>
+        <v>13.579651</v>
       </c>
       <c r="H11">
-        <v>13.5454626451614</v>
+        <v>40.738953</v>
       </c>
       <c r="I11">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J11">
-        <v>0.4787962962886685</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.5770824985993</v>
+        <v>0.1860886666666667</v>
       </c>
       <c r="N11">
-        <v>12.5770824985993</v>
+        <v>0.5582659999999999</v>
       </c>
       <c r="O11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="P11">
-        <v>0.1553548582999431</v>
+        <v>0.001973969740994906</v>
       </c>
       <c r="Q11">
-        <v>170.36240116989</v>
+        <v>2.527019148388666</v>
       </c>
       <c r="R11">
-        <v>170.36240116989</v>
+        <v>22.743172335498</v>
       </c>
       <c r="S11">
-        <v>0.07438333076446368</v>
+        <v>0.0007946324283748076</v>
       </c>
       <c r="T11">
-        <v>0.07438333076446368</v>
+        <v>0.0007946324283748076</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6631331159478</v>
+        <v>13.579651</v>
       </c>
       <c r="H12">
-        <v>13.6631331159478</v>
+        <v>40.738953</v>
       </c>
       <c r="I12">
-        <v>0.4829556363622389</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J12">
-        <v>0.4829556363622389</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.1602208046484</v>
+        <v>0.1932936666666667</v>
       </c>
       <c r="N12">
-        <v>12.1602208046484</v>
+        <v>0.579881</v>
       </c>
       <c r="O12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="P12">
-        <v>0.1502056919967382</v>
+        <v>0.002050398103015171</v>
       </c>
       <c r="Q12">
-        <v>166.146715573229</v>
+        <v>2.624860533843667</v>
       </c>
       <c r="R12">
-        <v>166.146715573229</v>
+        <v>23.623744804593</v>
       </c>
       <c r="S12">
-        <v>0.07254268556351515</v>
+        <v>0.0008253990878871576</v>
       </c>
       <c r="T12">
-        <v>0.07254268556351515</v>
+        <v>0.0008253990878871574</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6631331159478</v>
+        <v>13.579651</v>
       </c>
       <c r="H13">
-        <v>13.6631331159478</v>
+        <v>40.738953</v>
       </c>
       <c r="I13">
-        <v>0.4829556363622389</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="J13">
-        <v>0.4829556363622389</v>
+        <v>0.4025555264967246</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.8543492422994</v>
+        <v>17.58493233333333</v>
       </c>
       <c r="N13">
-        <v>55.8543492422994</v>
+        <v>52.754797</v>
       </c>
       <c r="O13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="P13">
-        <v>0.6899250691040103</v>
+        <v>0.1865354024252397</v>
       </c>
       <c r="Q13">
-        <v>763.1454088021748</v>
+        <v>238.7972439452823</v>
       </c>
       <c r="R13">
-        <v>763.1454088021748</v>
+        <v>2149.175195507541</v>
       </c>
       <c r="S13">
-        <v>0.333203200791389</v>
+        <v>0.07509085713357076</v>
       </c>
       <c r="T13">
-        <v>0.333203200791389</v>
+        <v>0.07509085713357076</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J14">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.174273158150951</v>
+        <v>20.26081</v>
       </c>
       <c r="N14">
-        <v>0.174273158150951</v>
+        <v>60.78243000000001</v>
       </c>
       <c r="O14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903252</v>
       </c>
       <c r="P14">
-        <v>0.002152659950591865</v>
+        <v>0.2149202666903251</v>
       </c>
       <c r="Q14">
-        <v>2.381117358353067</v>
+        <v>0.6935612943166668</v>
       </c>
       <c r="R14">
-        <v>2.381117358353067</v>
+        <v>6.24205164885</v>
       </c>
       <c r="S14">
-        <v>0.0010396392563096</v>
+        <v>0.0002180934386195882</v>
       </c>
       <c r="T14">
-        <v>0.0010396392563096</v>
+        <v>0.0002180934386195882</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>13.6631331159478</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>13.6631331159478</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="J15">
-        <v>0.4829556363622389</v>
+        <v>0.001014764414627473</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.191198110973819</v>
+        <v>55.974318</v>
       </c>
       <c r="N15">
-        <v>0.191198110973819</v>
+        <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389869</v>
       </c>
       <c r="P15">
-        <v>0.002361720648716625</v>
+        <v>0.5937578681389868</v>
       </c>
       <c r="Q15">
-        <v>2.612365241753049</v>
+        <v>1.91609419567</v>
       </c>
       <c r="R15">
-        <v>2.612365241753049</v>
+        <v>17.24484776103</v>
       </c>
       <c r="S15">
-        <v>0.001140606298810778</v>
+        <v>0.0006025243554925153</v>
       </c>
       <c r="T15">
-        <v>0.001140606298810778</v>
+        <v>0.0006025243554925152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03423166666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.102695</v>
+      </c>
+      <c r="I16">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="J16">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N16">
+        <v>0.215531</v>
+      </c>
+      <c r="O16">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P16">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q16">
+        <v>0.002459328449444444</v>
+      </c>
+      <c r="R16">
+        <v>0.022133956045</v>
+      </c>
+      <c r="S16">
+        <v>7.733467865486531E-07</v>
+      </c>
+      <c r="T16">
+        <v>7.733467865486532E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03423166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.102695</v>
+      </c>
+      <c r="I17">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="J17">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P17">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q17">
+        <v>0.006370125207777778</v>
+      </c>
+      <c r="R17">
+        <v>0.05733112686999999</v>
+      </c>
+      <c r="S17">
+        <v>2.003114248713041E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.003114248713041E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03423166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.102695</v>
+      </c>
+      <c r="I18">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="J18">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.579881</v>
+      </c>
+      <c r="O18">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P18">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q18">
+        <v>0.006616764366111112</v>
+      </c>
+      <c r="R18">
+        <v>0.059550879295</v>
+      </c>
+      <c r="S18">
+        <v>2.080671030759471E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.080671030759471E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03423166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.102695</v>
+      </c>
+      <c r="I19">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="J19">
+        <v>0.001014764414627473</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N19">
+        <v>52.754797</v>
+      </c>
+      <c r="O19">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P19">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q19">
+        <v>0.6019615419905555</v>
+      </c>
+      <c r="R19">
+        <v>5.417653877914999</v>
+      </c>
+      <c r="S19">
+        <v>0.0001892894884493485</v>
+      </c>
+      <c r="T19">
+        <v>0.0001892894884493485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H20">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I20">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J20">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>20.26081</v>
+      </c>
+      <c r="N20">
+        <v>60.78243000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2149202666903252</v>
+      </c>
+      <c r="P20">
+        <v>0.2149202666903251</v>
+      </c>
+      <c r="Q20">
+        <v>382.9163690960134</v>
+      </c>
+      <c r="R20">
+        <v>3446.247321864121</v>
+      </c>
+      <c r="S20">
+        <v>0.1204097580476387</v>
+      </c>
+      <c r="T20">
+        <v>0.1204097580476387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H21">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I21">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J21">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>55.974318</v>
+      </c>
+      <c r="N21">
+        <v>167.922954</v>
+      </c>
+      <c r="O21">
+        <v>0.5937578681389869</v>
+      </c>
+      <c r="P21">
+        <v>0.5937578681389868</v>
+      </c>
+      <c r="Q21">
+        <v>1057.878861268904</v>
+      </c>
+      <c r="R21">
+        <v>9520.909751420138</v>
+      </c>
+      <c r="S21">
+        <v>0.3326547204806514</v>
+      </c>
+      <c r="T21">
+        <v>0.3326547204806514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H22">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I22">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J22">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.07184366666666665</v>
+      </c>
+      <c r="N22">
+        <v>0.215531</v>
+      </c>
+      <c r="O22">
+        <v>0.0007620949014383343</v>
+      </c>
+      <c r="P22">
+        <v>0.0007620949014383344</v>
+      </c>
+      <c r="Q22">
+        <v>1.357799415844889</v>
+      </c>
+      <c r="R22">
+        <v>12.220194742604</v>
+      </c>
+      <c r="S22">
+        <v>0.0004269660749293111</v>
+      </c>
+      <c r="T22">
+        <v>0.0004269660749293113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.6631331159478</v>
-      </c>
-      <c r="H16">
-        <v>13.6631331159478</v>
-      </c>
-      <c r="I16">
-        <v>0.4829556363622389</v>
-      </c>
-      <c r="J16">
-        <v>0.4829556363622389</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>12.5770824985993</v>
-      </c>
-      <c r="N16">
-        <v>12.5770824985993</v>
-      </c>
-      <c r="O16">
-        <v>0.1553548582999431</v>
-      </c>
-      <c r="P16">
-        <v>0.1553548582999431</v>
-      </c>
-      <c r="Q16">
-        <v>171.8423523886196</v>
-      </c>
-      <c r="R16">
-        <v>171.8423523886196</v>
-      </c>
-      <c r="S16">
-        <v>0.0750295044522145</v>
-      </c>
-      <c r="T16">
-        <v>0.0750295044522145</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H23">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I23">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J23">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1860886666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.5582659999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="P23">
+        <v>0.001973969740994906</v>
+      </c>
+      <c r="Q23">
+        <v>3.516956951371556</v>
+      </c>
+      <c r="R23">
+        <v>31.652612562344</v>
+      </c>
+      <c r="S23">
+        <v>0.001105922780418997</v>
+      </c>
+      <c r="T23">
+        <v>0.001105922780418997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H24">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I24">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J24">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1932936666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.579881</v>
+      </c>
+      <c r="O24">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="P24">
+        <v>0.002050398103015171</v>
+      </c>
+      <c r="Q24">
+        <v>3.653126849778223</v>
+      </c>
+      <c r="R24">
+        <v>32.878141648004</v>
+      </c>
+      <c r="S24">
+        <v>0.001148742011571811</v>
+      </c>
+      <c r="T24">
+        <v>0.001148742011571811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.89936133333334</v>
+      </c>
+      <c r="H25">
+        <v>56.69808400000001</v>
+      </c>
+      <c r="I25">
+        <v>0.5602531576100034</v>
+      </c>
+      <c r="J25">
+        <v>0.5602531576100035</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.58493233333333</v>
+      </c>
+      <c r="N25">
+        <v>52.754797</v>
+      </c>
+      <c r="O25">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="P25">
+        <v>0.1865354024252397</v>
+      </c>
+      <c r="Q25">
+        <v>332.3439901898831</v>
+      </c>
+      <c r="R25">
+        <v>2991.095911708948</v>
+      </c>
+      <c r="S25">
+        <v>0.1045070482147932</v>
+      </c>
+      <c r="T25">
+        <v>0.1045070482147932</v>
       </c>
     </row>
   </sheetData>
